--- a/config_hlw/fish3d_gun_barrel_config.xlsx
+++ b/config_hlw/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -1479,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E12" sqref="E12:G15"/>
     </sheetView>
@@ -4084,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4135,7 +4135,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4163,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4199,10 +4199,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4227,10 +4227,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4255,10 +4255,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4283,10 +4283,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
         <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
         <v>100</v>
@@ -4334,6 +4334,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>